--- a/Tracking spreadsheet/Tracking spreadsheet.xlsx
+++ b/Tracking spreadsheet/Tracking spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33580" windowHeight="25120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
   <si>
     <t>File</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Shell</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Explain failure to attend</t>
   </si>
   <si>
-    <t>fail.html</t>
-  </si>
-  <si>
     <t>Pay fine</t>
   </si>
   <si>
@@ -236,6 +230,60 @@
   </si>
   <si>
     <t>illness2.html</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Full page</t>
+  </si>
+  <si>
+    <t>illnessattach.html</t>
+  </si>
+  <si>
+    <t>Sicnkess (attach doc)</t>
+  </si>
+  <si>
+    <t>illnessattached.html</t>
+  </si>
+  <si>
+    <t>Sicnkess (doc attached)</t>
+  </si>
+  <si>
+    <t>Sicnkess (doc attached, additional)</t>
+  </si>
+  <si>
+    <t>illnessnote.html</t>
+  </si>
+  <si>
+    <t>exconfirm.html</t>
+  </si>
+  <si>
+    <t>Receipt confirmation</t>
+  </si>
+  <si>
+    <t>Add note about 1 week to start of excuse/other applicaionts.</t>
+  </si>
+  <si>
+    <t>Sickness (email)</t>
+  </si>
+  <si>
+    <t>illnessemail.html</t>
+  </si>
+  <si>
+    <t>(placeholder)</t>
+  </si>
+  <si>
+    <t>homefail.html</t>
+  </si>
+  <si>
+    <t>explain.html</t>
+  </si>
+  <si>
+    <t>jurorbrochure.html</t>
+  </si>
+  <si>
+    <t>Welcome to Jury Service</t>
   </si>
 </sst>
 </file>
@@ -284,8 +332,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -303,15 +437,101 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -664,9 +884,11 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -683,364 +905,517 @@
     </row>
     <row r="2" spans="1:19" ht="12.75" customHeight="1">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="12.75" customHeight="1">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.75" customHeight="1">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.75" customHeight="1">
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.75" customHeight="1">
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12.75" customHeight="1">
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.75" customHeight="1">
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" customHeight="1">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>31</v>
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>38</v>
+      <c r="B25" t="s">
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>40</v>
+      <c r="B26" t="s">
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B29" t="s">
-        <v>46</v>
+      <c r="A29" t="s">
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B30" t="s">
-        <v>48</v>
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B31" t="s">
-        <v>50</v>
+      <c r="A31" t="s">
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
       <c r="B32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" t="s">
-        <v>54</v>
+      <c r="B33" t="s">
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" t="s">
-        <v>56</v>
+      <c r="B34" t="s">
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" t="s">
-        <v>59</v>
+      <c r="B36" t="s">
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
       <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
+      <c r="D43" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1056,9 +1431,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -1067,17 +1444,22 @@
   <sheetData>
     <row r="2" spans="1:1" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Tracking spreadsheet/Tracking spreadsheet.xlsx
+++ b/Tracking spreadsheet/Tracking spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>File</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>Welcome to Jury Service</t>
+  </si>
+  <si>
+    <t>aboutus.html</t>
+  </si>
+  <si>
+    <t>panellookup2.html</t>
+  </si>
+  <si>
+    <t>panellookup3.html</t>
   </si>
 </sst>
 </file>
@@ -332,8 +341,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -437,7 +496,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -485,6 +544,31 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -532,6 +616,31 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -861,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -955,6 +1064,9 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="12.75" customHeight="1">
       <c r="B6" t="s">
@@ -1274,6 +1386,9 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" t="s">
@@ -1282,6 +1397,12 @@
       <c r="C31" t="s">
         <v>41</v>
       </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
       <c r="B32" t="s">
@@ -1290,6 +1411,12 @@
       <c r="C32" t="s">
         <v>43</v>
       </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
       <c r="B33" t="s">
@@ -1298,6 +1425,12 @@
       <c r="C33" t="s">
         <v>45</v>
       </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="B34" t="s">
@@ -1395,6 +1528,15 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" t="s">
@@ -1406,6 +1548,9 @@
       <c r="D42" t="s">
         <v>4</v>
       </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1">
       <c r="A43" t="s">
@@ -1415,6 +1560,31 @@
         <v>63</v>
       </c>
       <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75" customHeight="1">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
         <v>4</v>
       </c>
     </row>
